--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd200-Cd200r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,25 +528,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>52.65956366666666</v>
+        <v>81.32496133333333</v>
       </c>
       <c r="H2">
-        <v>157.978691</v>
+        <v>243.974884</v>
       </c>
       <c r="I2">
-        <v>0.5629521204363476</v>
+        <v>0.6750769978981389</v>
       </c>
       <c r="J2">
-        <v>0.5629521204363476</v>
+        <v>0.6750769978981389</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>3.265921</v>
+        <v>0.023509</v>
       </c>
       <c r="N2">
-        <v>9.797763</v>
+        <v>0.07052700000000001</v>
       </c>
       <c r="O2">
-        <v>0.3061758933994624</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="P2">
-        <v>0.3061758933994624</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="Q2">
-        <v>171.9819748298036</v>
+        <v>1.911868515985333</v>
       </c>
       <c r="R2">
-        <v>1547.837773468233</v>
+        <v>17.206816643868</v>
       </c>
       <c r="S2">
-        <v>0.1723623684157205</v>
+        <v>0.001329174051879189</v>
       </c>
       <c r="T2">
-        <v>0.1723623684157205</v>
+        <v>0.001329174051879189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>52.65956366666666</v>
+        <v>81.32496133333333</v>
       </c>
       <c r="H3">
-        <v>157.978691</v>
+        <v>243.974884</v>
       </c>
       <c r="I3">
-        <v>0.5629521204363476</v>
+        <v>0.6750769978981389</v>
       </c>
       <c r="J3">
-        <v>0.5629521204363476</v>
+        <v>0.6750769978981389</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023509</v>
+        <v>11.91652633333333</v>
       </c>
       <c r="N3">
-        <v>0.07052699999999999</v>
+        <v>35.749579</v>
       </c>
       <c r="O3">
-        <v>0.002203938514718501</v>
+        <v>0.998031077853315</v>
       </c>
       <c r="P3">
-        <v>0.002203938514718501</v>
+        <v>0.9980310778533151</v>
       </c>
       <c r="Q3">
-        <v>1.237973682239667</v>
+        <v>969.1110432859816</v>
       </c>
       <c r="R3">
-        <v>11.141763140157</v>
+        <v>8721.999389573835</v>
       </c>
       <c r="S3">
-        <v>0.001240711860172115</v>
+        <v>0.6737478238462596</v>
       </c>
       <c r="T3">
-        <v>0.001240711860172114</v>
+        <v>0.6737478238462598</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,55 +652,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>52.65956366666666</v>
+        <v>6.328723</v>
       </c>
       <c r="H4">
-        <v>157.978691</v>
+        <v>18.986169</v>
       </c>
       <c r="I4">
-        <v>0.5629521204363476</v>
+        <v>0.05253461241570551</v>
       </c>
       <c r="J4">
-        <v>0.5629521204363476</v>
+        <v>0.05253461241570551</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>7.377382999999999</v>
+        <v>0.023509</v>
       </c>
       <c r="N4">
-        <v>22.132149</v>
+        <v>0.07052700000000001</v>
       </c>
       <c r="O4">
-        <v>0.6916201680858191</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="P4">
-        <v>0.6916201680858191</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="Q4">
-        <v>388.4897697818843</v>
+        <v>0.148781949007</v>
       </c>
       <c r="R4">
-        <v>3496.407928036959</v>
+        <v>1.339037541063</v>
       </c>
       <c r="S4">
-        <v>0.389349040160455</v>
+        <v>0.0001034365618527891</v>
       </c>
       <c r="T4">
-        <v>0.389349040160455</v>
+        <v>0.0001034365618527891</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +729,45 @@
         <v>18.986169</v>
       </c>
       <c r="I5">
-        <v>0.06765661893927738</v>
+        <v>0.05253461241570551</v>
       </c>
       <c r="J5">
-        <v>0.06765661893927738</v>
+        <v>0.05253461241570551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>3.265921</v>
+        <v>11.91652633333333</v>
       </c>
       <c r="N5">
-        <v>9.797763</v>
+        <v>35.749579</v>
       </c>
       <c r="O5">
-        <v>0.3061758933994624</v>
+        <v>0.998031077853315</v>
       </c>
       <c r="P5">
-        <v>0.3061758933994624</v>
+        <v>0.9980310778533151</v>
       </c>
       <c r="Q5">
-        <v>20.669109348883</v>
+        <v>75.41639428587233</v>
       </c>
       <c r="R5">
-        <v>186.021984139947</v>
+        <v>678.747548572851</v>
       </c>
       <c r="S5">
-        <v>0.02071482574812024</v>
+        <v>0.05243117585385271</v>
       </c>
       <c r="T5">
-        <v>0.02071482574812024</v>
+        <v>0.05243117585385271</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.328723</v>
+        <v>32.165674</v>
       </c>
       <c r="H6">
-        <v>18.986169</v>
+        <v>96.497022</v>
       </c>
       <c r="I6">
-        <v>0.06765661893927738</v>
+        <v>0.2670066641690489</v>
       </c>
       <c r="J6">
-        <v>0.06765661893927738</v>
+        <v>0.2670066641690489</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,30 +806,30 @@
         <v>0.023509</v>
       </c>
       <c r="N6">
-        <v>0.07052699999999999</v>
+        <v>0.07052700000000001</v>
       </c>
       <c r="O6">
-        <v>0.002203938514718501</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="P6">
-        <v>0.002203938514718501</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="Q6">
-        <v>0.148781949007</v>
+        <v>0.7561828300660002</v>
       </c>
       <c r="R6">
-        <v>1.339037541063</v>
+        <v>6.805645470594</v>
       </c>
       <c r="S6">
-        <v>0.0001491110282559066</v>
+        <v>0.0005257153343948931</v>
       </c>
       <c r="T6">
-        <v>0.0001491110282559066</v>
+        <v>0.000525715334394893</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.328723</v>
+        <v>32.165674</v>
       </c>
       <c r="H7">
-        <v>18.986169</v>
+        <v>96.497022</v>
       </c>
       <c r="I7">
-        <v>0.06765661893927738</v>
+        <v>0.2670066641690489</v>
       </c>
       <c r="J7">
-        <v>0.06765661893927738</v>
+        <v>0.2670066641690489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.377382999999999</v>
+        <v>11.91652633333333</v>
       </c>
       <c r="N7">
-        <v>22.132149</v>
+        <v>35.749579</v>
       </c>
       <c r="O7">
-        <v>0.6916201680858191</v>
+        <v>0.998031077853315</v>
       </c>
       <c r="P7">
-        <v>0.6916201680858191</v>
+        <v>0.9980310778533151</v>
       </c>
       <c r="Q7">
-        <v>46.68941347190899</v>
+        <v>383.3031012504153</v>
       </c>
       <c r="R7">
-        <v>420.204721247181</v>
+        <v>3449.727911253738</v>
       </c>
       <c r="S7">
-        <v>0.04679268216290123</v>
+        <v>0.266480948834654</v>
       </c>
       <c r="T7">
-        <v>0.04679268216290123</v>
+        <v>0.266480948834654</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,25 +900,25 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>33.96434433333334</v>
+        <v>0.648324</v>
       </c>
       <c r="H8">
-        <v>101.893033</v>
+        <v>1.944972</v>
       </c>
       <c r="I8">
-        <v>0.3630926337086864</v>
+        <v>0.005381725517106667</v>
       </c>
       <c r="J8">
-        <v>0.3630926337086863</v>
+        <v>0.005381725517106666</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>3.265921</v>
+        <v>0.023509</v>
       </c>
       <c r="N8">
-        <v>9.797763</v>
+        <v>0.07052700000000001</v>
       </c>
       <c r="O8">
-        <v>0.3061758933994624</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="P8">
-        <v>0.3061758933994624</v>
+        <v>0.001968922146684882</v>
       </c>
       <c r="Q8">
-        <v>110.9248654094643</v>
+        <v>0.015241448916</v>
       </c>
       <c r="R8">
-        <v>998.323788685179</v>
+        <v>0.137173040244</v>
       </c>
       <c r="S8">
-        <v>0.1111702115125208</v>
+        <v>1.059619855801046E-05</v>
       </c>
       <c r="T8">
-        <v>0.1111702115125208</v>
+        <v>1.059619855801046E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,303 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.648324</v>
+      </c>
+      <c r="H9">
+        <v>1.944972</v>
+      </c>
+      <c r="I9">
+        <v>0.005381725517106667</v>
+      </c>
+      <c r="J9">
+        <v>0.005381725517106666</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>33.96434433333334</v>
-      </c>
-      <c r="H9">
-        <v>101.893033</v>
-      </c>
-      <c r="I9">
-        <v>0.3630926337086864</v>
-      </c>
-      <c r="J9">
-        <v>0.3630926337086863</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.023509</v>
+        <v>11.91652633333333</v>
       </c>
       <c r="N9">
-        <v>0.07052699999999999</v>
+        <v>35.749579</v>
       </c>
       <c r="O9">
-        <v>0.002203938514718501</v>
+        <v>0.998031077853315</v>
       </c>
       <c r="P9">
-        <v>0.002203938514718501</v>
+        <v>0.9980310778533151</v>
       </c>
       <c r="Q9">
-        <v>0.7984677709323333</v>
+        <v>7.725770018531999</v>
       </c>
       <c r="R9">
-        <v>7.186209938390999</v>
+        <v>69.53193016678799</v>
       </c>
       <c r="S9">
-        <v>0.0008002338398411511</v>
+        <v>0.005371129318548656</v>
       </c>
       <c r="T9">
-        <v>0.0008002338398411509</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>33.96434433333334</v>
-      </c>
-      <c r="H10">
-        <v>101.893033</v>
-      </c>
-      <c r="I10">
-        <v>0.3630926337086864</v>
-      </c>
-      <c r="J10">
-        <v>0.3630926337086863</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>7.377382999999999</v>
-      </c>
-      <c r="N10">
-        <v>22.132149</v>
-      </c>
-      <c r="O10">
-        <v>0.6916201680858191</v>
-      </c>
-      <c r="P10">
-        <v>0.6916201680858191</v>
-      </c>
-      <c r="Q10">
-        <v>250.5679764908797</v>
-      </c>
-      <c r="R10">
-        <v>2255.111788417917</v>
-      </c>
-      <c r="S10">
-        <v>0.2511221883563244</v>
-      </c>
-      <c r="T10">
-        <v>0.2511221883563244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.589185</v>
-      </c>
-      <c r="H11">
-        <v>1.767555</v>
-      </c>
-      <c r="I11">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="J11">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>3.265921</v>
-      </c>
-      <c r="N11">
-        <v>9.797763</v>
-      </c>
-      <c r="O11">
-        <v>0.3061758933994624</v>
-      </c>
-      <c r="P11">
-        <v>0.3061758933994624</v>
-      </c>
-      <c r="Q11">
-        <v>1.924231664385</v>
-      </c>
-      <c r="R11">
-        <v>17.318084979465</v>
-      </c>
-      <c r="S11">
-        <v>0.001928487723100889</v>
-      </c>
-      <c r="T11">
-        <v>0.001928487723100889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.589185</v>
-      </c>
-      <c r="H12">
-        <v>1.767555</v>
-      </c>
-      <c r="I12">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="J12">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.023509</v>
-      </c>
-      <c r="N12">
-        <v>0.07052699999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.002203938514718501</v>
-      </c>
-      <c r="P12">
-        <v>0.002203938514718501</v>
-      </c>
-      <c r="Q12">
-        <v>0.013851150165</v>
-      </c>
-      <c r="R12">
-        <v>0.124660351485</v>
-      </c>
-      <c r="S12">
-        <v>1.388178644932893E-05</v>
-      </c>
-      <c r="T12">
-        <v>1.388178644932893E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.589185</v>
-      </c>
-      <c r="H13">
-        <v>1.767555</v>
-      </c>
-      <c r="I13">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="J13">
-        <v>0.006298626915688701</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.377382999999999</v>
-      </c>
-      <c r="N13">
-        <v>22.132149</v>
-      </c>
-      <c r="O13">
-        <v>0.6916201680858191</v>
-      </c>
-      <c r="P13">
-        <v>0.6916201680858191</v>
-      </c>
-      <c r="Q13">
-        <v>4.346643402854999</v>
-      </c>
-      <c r="R13">
-        <v>39.119790625695</v>
-      </c>
-      <c r="S13">
-        <v>0.004356257406138484</v>
-      </c>
-      <c r="T13">
-        <v>0.004356257406138484</v>
+        <v>0.005371129318548656</v>
       </c>
     </row>
   </sheetData>
